--- a/Data/Employee.xlsx
+++ b/Data/Employee.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1905,7 +1905,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6768,7 +6768,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -7239,7 +7239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7249,11 +7249,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="K154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z181" sqref="Z181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.90625" style="30" bestFit="1" customWidth="1"/>
@@ -7279,7 +7279,7 @@
     <col min="23" max="23" width="26.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16383">
+    <row r="1" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16383">
+    <row r="2" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>401</v>
       </c>
@@ -23764,7 +23764,7 @@
       <c r="XFB2" s="3"/>
       <c r="XFC2" s="3"/>
     </row>
-    <row r="3" spans="1:16383">
+    <row r="3" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
@@ -23826,7 +23826,7 @@
       </c>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:16383">
+    <row r="4" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -23888,7 +23888,7 @@
       </c>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:16383">
+    <row r="5" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
@@ -23950,7 +23950,7 @@
       </c>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:16383">
+    <row r="6" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
@@ -24012,7 +24012,7 @@
       </c>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:16383">
+    <row r="7" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -24074,7 +24074,7 @@
       </c>
       <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:16383">
+    <row r="8" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>21</v>
       </c>
@@ -24136,7 +24136,7 @@
       </c>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:16383">
+    <row r="9" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
@@ -24198,7 +24198,7 @@
       </c>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:16383">
+    <row r="10" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -24260,7 +24260,7 @@
       </c>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:16383">
+    <row r="11" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
@@ -24322,7 +24322,7 @@
       </c>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:16383">
+    <row r="12" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
@@ -24384,7 +24384,7 @@
       </c>
       <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:16383">
+    <row r="13" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
@@ -24446,7 +24446,7 @@
       </c>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:16383">
+    <row r="14" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
@@ -24506,7 +24506,7 @@
       </c>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:16383">
+    <row r="15" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -24568,7 +24568,7 @@
       </c>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:16383">
+    <row r="16" spans="1:16383" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
@@ -24630,7 +24630,7 @@
       </c>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
@@ -24692,7 +24692,7 @@
       </c>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
@@ -24758,7 +24758,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
@@ -24820,7 +24820,7 @@
       </c>
       <c r="W19" s="8"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>21</v>
       </c>
@@ -24882,7 +24882,7 @@
       </c>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
@@ -24944,7 +24944,7 @@
       </c>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
@@ -25006,7 +25006,7 @@
       </c>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -25068,7 +25068,7 @@
       </c>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
@@ -25130,7 +25130,7 @@
       </c>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>21</v>
       </c>
@@ -25192,7 +25192,7 @@
       </c>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>21</v>
       </c>
@@ -25254,7 +25254,7 @@
       </c>
       <c r="W26" s="8"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>21</v>
       </c>
@@ -25316,7 +25316,7 @@
       </c>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>21</v>
       </c>
@@ -25378,7 +25378,7 @@
       </c>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>21</v>
       </c>
@@ -25440,7 +25440,7 @@
       </c>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
@@ -25502,7 +25502,7 @@
       </c>
       <c r="W30" s="8"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>21</v>
       </c>
@@ -25564,7 +25564,7 @@
       </c>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>21</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>87</v>
       </c>
@@ -25690,7 +25690,7 @@
       </c>
       <c r="W33" s="8"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>87</v>
       </c>
@@ -25752,7 +25752,7 @@
       </c>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>95</v>
       </c>
@@ -25815,7 +25815,7 @@
       </c>
       <c r="W35" s="8"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>95</v>
       </c>
@@ -25878,7 +25878,7 @@
       </c>
       <c r="W36" s="8"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>95</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>95</v>
       </c>
@@ -26006,7 +26006,7 @@
       </c>
       <c r="W38" s="8"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>95</v>
       </c>
@@ -26069,7 +26069,7 @@
       </c>
       <c r="W39" s="8"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>95</v>
       </c>
@@ -26132,7 +26132,7 @@
       </c>
       <c r="W40" s="8"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>95</v>
       </c>
@@ -26199,7 +26199,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>95</v>
       </c>
@@ -26262,7 +26262,7 @@
       </c>
       <c r="W42" s="8"/>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>95</v>
       </c>
@@ -26327,7 +26327,7 @@
       </c>
       <c r="W43" s="8"/>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>95</v>
       </c>
@@ -26390,7 +26390,7 @@
       </c>
       <c r="W44" s="8"/>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>95</v>
       </c>
@@ -26453,7 +26453,7 @@
       </c>
       <c r="W45" s="8"/>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>95</v>
       </c>
@@ -26516,7 +26516,7 @@
       </c>
       <c r="W46" s="8"/>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>95</v>
       </c>
@@ -26579,7 +26579,7 @@
       </c>
       <c r="W47" s="8"/>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>95</v>
       </c>
@@ -26642,7 +26642,7 @@
       </c>
       <c r="W48" s="8"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>95</v>
       </c>
@@ -26709,7 +26709,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>95</v>
       </c>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="W50" s="8"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>95</v>
       </c>
@@ -26837,7 +26837,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>95</v>
       </c>
@@ -26900,7 +26900,7 @@
       </c>
       <c r="W52" s="8"/>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>95</v>
       </c>
@@ -26963,7 +26963,7 @@
       </c>
       <c r="W53" s="8"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>95</v>
       </c>
@@ -27026,7 +27026,7 @@
       </c>
       <c r="W54" s="8"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>95</v>
       </c>
@@ -27089,7 +27089,7 @@
       </c>
       <c r="W55" s="8"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>95</v>
       </c>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="W56" s="8"/>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>95</v>
       </c>
@@ -27219,7 +27219,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>95</v>
       </c>
@@ -27282,7 +27282,7 @@
       </c>
       <c r="W58" s="8"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>95</v>
       </c>
@@ -27345,7 +27345,7 @@
       </c>
       <c r="W59" s="8"/>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>95</v>
       </c>
@@ -27410,7 +27410,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>95</v>
       </c>
@@ -27473,7 +27473,7 @@
       </c>
       <c r="W61" s="8"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>95</v>
       </c>
@@ -27536,7 +27536,7 @@
       </c>
       <c r="W62" s="8"/>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>95</v>
       </c>
@@ -27601,7 +27601,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>95</v>
       </c>
@@ -27664,7 +27664,7 @@
       </c>
       <c r="W64" s="8"/>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>95</v>
       </c>
@@ -27727,7 +27727,7 @@
       </c>
       <c r="W65" s="8"/>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>95</v>
       </c>
@@ -27790,7 +27790,7 @@
       </c>
       <c r="W66" s="8"/>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>95</v>
       </c>
@@ -27853,7 +27853,7 @@
       </c>
       <c r="W67" s="8"/>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>95</v>
       </c>
@@ -27916,7 +27916,7 @@
       </c>
       <c r="W68" s="8"/>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>95</v>
       </c>
@@ -27979,7 +27979,7 @@
       </c>
       <c r="W69" s="8"/>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>95</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>95</v>
       </c>
@@ -28107,7 +28107,7 @@
       </c>
       <c r="W71" s="8"/>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>95</v>
       </c>
@@ -28170,7 +28170,7 @@
       </c>
       <c r="W72" s="8"/>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>95</v>
       </c>
@@ -28235,7 +28235,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>95</v>
       </c>
@@ -28298,7 +28298,7 @@
       </c>
       <c r="W74" s="8"/>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>95</v>
       </c>
@@ -28361,7 +28361,7 @@
       </c>
       <c r="W75" s="8"/>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>95</v>
       </c>
@@ -28424,7 +28424,7 @@
       </c>
       <c r="W76" s="8"/>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>95</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>95</v>
       </c>
@@ -28552,7 +28552,7 @@
       </c>
       <c r="W78" s="8"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>95</v>
       </c>
@@ -28615,7 +28615,7 @@
       </c>
       <c r="W79" s="8"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>95</v>
       </c>
@@ -28678,7 +28678,7 @@
       </c>
       <c r="W80" s="8"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>95</v>
       </c>
@@ -28741,7 +28741,7 @@
       </c>
       <c r="W81" s="8"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>95</v>
       </c>
@@ -28804,7 +28804,7 @@
       </c>
       <c r="W82" s="8"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>95</v>
       </c>
@@ -28867,7 +28867,7 @@
       </c>
       <c r="W83" s="8"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>95</v>
       </c>
@@ -28930,7 +28930,7 @@
       </c>
       <c r="W84" s="8"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>95</v>
       </c>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="W85" s="8"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>95</v>
       </c>
@@ -29056,7 +29056,7 @@
       </c>
       <c r="W86" s="8"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>95</v>
       </c>
@@ -29119,7 +29119,7 @@
       </c>
       <c r="W87" s="8"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>95</v>
       </c>
@@ -29182,7 +29182,7 @@
       </c>
       <c r="W88" s="8"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>95</v>
       </c>
@@ -29243,7 +29243,7 @@
       </c>
       <c r="W89" s="8"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>95</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>95</v>
       </c>
@@ -29371,7 +29371,7 @@
       </c>
       <c r="W91" s="8"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>95</v>
       </c>
@@ -29434,7 +29434,7 @@
       </c>
       <c r="W92" s="8"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>95</v>
       </c>
@@ -29497,7 +29497,7 @@
       </c>
       <c r="W93" s="8"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>95</v>
       </c>
@@ -29562,7 +29562,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>95</v>
       </c>
@@ -29625,7 +29625,7 @@
       </c>
       <c r="W95" s="8"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>95</v>
       </c>
@@ -29688,7 +29688,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>95</v>
       </c>
@@ -29755,7 +29755,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>95</v>
       </c>
@@ -29818,7 +29818,7 @@
       </c>
       <c r="W98" s="8"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>95</v>
       </c>
@@ -29881,7 +29881,7 @@
       </c>
       <c r="W99" s="8"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>95</v>
       </c>
@@ -29946,7 +29946,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>95</v>
       </c>
@@ -30009,7 +30009,7 @@
       </c>
       <c r="W101" s="8"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>95</v>
       </c>
@@ -30072,7 +30072,7 @@
       </c>
       <c r="W102" s="8"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="18" t="s">
         <v>95</v>
       </c>
@@ -30137,7 +30137,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="18" t="s">
         <v>202</v>
       </c>
@@ -30199,7 +30199,7 @@
       </c>
       <c r="W104" s="8"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="18" t="s">
         <v>202</v>
       </c>
@@ -30259,7 +30259,7 @@
       </c>
       <c r="W105" s="8"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="18" t="s">
         <v>202</v>
       </c>
@@ -30319,7 +30319,7 @@
       </c>
       <c r="W106" s="8"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
         <v>202</v>
       </c>
@@ -30381,7 +30381,7 @@
       </c>
       <c r="W107" s="8"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
         <v>202</v>
       </c>
@@ -30443,7 +30443,7 @@
       </c>
       <c r="W108" s="8"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>202</v>
       </c>
@@ -30505,7 +30505,7 @@
       </c>
       <c r="W109" s="8"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>202</v>
       </c>
@@ -30565,7 +30565,7 @@
       </c>
       <c r="W110" s="8"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="18" t="s">
         <v>202</v>
       </c>
@@ -30627,7 +30627,7 @@
       </c>
       <c r="W111" s="8"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="18" t="s">
         <v>591</v>
       </c>
@@ -30693,7 +30693,7 @@
       </c>
       <c r="W112" s="8"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>591</v>
       </c>
@@ -30759,7 +30759,7 @@
       </c>
       <c r="W113" s="8"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114" s="18" t="s">
         <v>591</v>
       </c>
@@ -30825,7 +30825,7 @@
       </c>
       <c r="W114" s="8"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" s="18" t="s">
         <v>591</v>
       </c>
@@ -30891,7 +30891,7 @@
       </c>
       <c r="W115" s="8"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116" s="18" t="s">
         <v>591</v>
       </c>
@@ -30957,7 +30957,7 @@
       </c>
       <c r="W116" s="8"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117" s="18" t="s">
         <v>616</v>
       </c>
@@ -31021,7 +31021,7 @@
       </c>
       <c r="W117" s="8"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118" s="18" t="s">
         <v>616</v>
       </c>
@@ -31085,7 +31085,7 @@
       </c>
       <c r="W118" s="8"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119" s="18" t="s">
         <v>216</v>
       </c>
@@ -31147,7 +31147,7 @@
       </c>
       <c r="W119" s="8"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>592</v>
       </c>
@@ -31207,7 +31207,7 @@
       </c>
       <c r="W120" s="8"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>221</v>
       </c>
@@ -31271,7 +31271,7 @@
       </c>
       <c r="W121" s="8"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
         <v>221</v>
       </c>
@@ -31335,7 +31335,7 @@
       </c>
       <c r="W122" s="8"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123" s="18" t="s">
         <v>221</v>
       </c>
@@ -31399,7 +31399,7 @@
       </c>
       <c r="W123" s="8"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124" s="18" t="s">
         <v>221</v>
       </c>
@@ -31463,7 +31463,7 @@
       </c>
       <c r="W124" s="8"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>232</v>
       </c>
@@ -31525,7 +31525,7 @@
       </c>
       <c r="W125" s="8"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" s="18" t="s">
         <v>232</v>
       </c>
@@ -31587,7 +31587,7 @@
       </c>
       <c r="W126" s="8"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
         <v>232</v>
       </c>
@@ -31649,7 +31649,7 @@
       </c>
       <c r="W127" s="8"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128" s="18" t="s">
         <v>239</v>
       </c>
@@ -31711,7 +31711,7 @@
       </c>
       <c r="W128" s="8"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
         <v>239</v>
       </c>
@@ -31773,7 +31773,7 @@
       </c>
       <c r="W129" s="8"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A130" s="18" t="s">
         <v>239</v>
       </c>
@@ -31835,7 +31835,7 @@
       </c>
       <c r="W130" s="8"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A131" s="18" t="s">
         <v>239</v>
       </c>
@@ -31897,7 +31897,7 @@
       </c>
       <c r="W131" s="8"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A132" s="18" t="s">
         <v>239</v>
       </c>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="W132" s="8"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A133" s="18" t="s">
         <v>239</v>
       </c>
@@ -32021,7 +32021,7 @@
       </c>
       <c r="W133" s="8"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A134" s="18" t="s">
         <v>239</v>
       </c>
@@ -32083,7 +32083,7 @@
       </c>
       <c r="W134" s="8"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
         <v>252</v>
       </c>
@@ -32145,7 +32145,7 @@
       </c>
       <c r="W135" s="8"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A136" s="18" t="s">
         <v>255</v>
       </c>
@@ -32209,7 +32209,7 @@
       </c>
       <c r="W136" s="8"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A137" s="18" t="s">
         <v>255</v>
       </c>
@@ -32273,7 +32273,7 @@
       </c>
       <c r="W137" s="8"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A138" s="18" t="s">
         <v>261</v>
       </c>
@@ -32335,7 +32335,7 @@
       </c>
       <c r="W138" s="8"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>263</v>
       </c>
@@ -32397,7 +32397,7 @@
       </c>
       <c r="W139" s="8"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
         <v>263</v>
       </c>
@@ -32459,7 +32459,7 @@
       </c>
       <c r="W140" s="8"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A141" s="18" t="s">
         <v>326</v>
       </c>
@@ -32521,7 +32521,7 @@
       </c>
       <c r="W141" s="8"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A142" s="18" t="s">
         <v>326</v>
       </c>
@@ -32583,7 +32583,7 @@
       </c>
       <c r="W142" s="8"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A143" s="18" t="s">
         <v>326</v>
       </c>
@@ -32645,7 +32645,7 @@
       </c>
       <c r="W143" s="8"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A144" s="18" t="s">
         <v>326</v>
       </c>
@@ -32707,7 +32707,7 @@
       </c>
       <c r="W144" s="8"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145" s="18" t="s">
         <v>326</v>
       </c>
@@ -32769,7 +32769,7 @@
       </c>
       <c r="W145" s="8"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146" s="18" t="s">
         <v>326</v>
       </c>
@@ -32831,7 +32831,7 @@
       </c>
       <c r="W146" s="8"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A147" s="18" t="s">
         <v>267</v>
       </c>
@@ -32893,7 +32893,7 @@
       </c>
       <c r="W147" s="8"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148" s="18" t="s">
         <v>267</v>
       </c>
@@ -32955,7 +32955,7 @@
       </c>
       <c r="W148" s="8"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A149" s="18" t="s">
         <v>271</v>
       </c>
@@ -33017,7 +33017,7 @@
       </c>
       <c r="W149" s="8"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150" s="18" t="s">
         <v>271</v>
       </c>
@@ -33079,7 +33079,7 @@
       </c>
       <c r="W150" s="8"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A151" s="18" t="s">
         <v>335</v>
       </c>
@@ -33125,7 +33125,7 @@
       <c r="V151" s="8"/>
       <c r="W151" s="8"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A152" s="18" t="s">
         <v>335</v>
       </c>
@@ -33171,7 +33171,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A153" s="18" t="s">
         <v>335</v>
       </c>
@@ -33217,7 +33217,7 @@
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A154" s="18" t="s">
         <v>275</v>
       </c>
@@ -33279,7 +33279,7 @@
       </c>
       <c r="W154" s="8"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A155" s="18" t="s">
         <v>275</v>
       </c>
@@ -33341,7 +33341,7 @@
       </c>
       <c r="W155" s="8"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A156" s="18" t="s">
         <v>275</v>
       </c>
@@ -33403,7 +33403,7 @@
       </c>
       <c r="W156" s="8"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A157" s="18" t="s">
         <v>275</v>
       </c>
@@ -33465,7 +33465,7 @@
       </c>
       <c r="W157" s="8"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A158" s="18" t="s">
         <v>275</v>
       </c>
@@ -33527,7 +33527,7 @@
       </c>
       <c r="W158" s="8"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159" s="18" t="s">
         <v>275</v>
       </c>
@@ -33589,7 +33589,7 @@
       </c>
       <c r="W159" s="8"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A160" s="18" t="s">
         <v>275</v>
       </c>
@@ -33651,7 +33651,7 @@
       </c>
       <c r="W160" s="8"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A161" s="18" t="s">
         <v>275</v>
       </c>
@@ -33713,7 +33713,7 @@
       </c>
       <c r="W161" s="8"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A162" s="18" t="s">
         <v>275</v>
       </c>
@@ -33775,7 +33775,7 @@
       </c>
       <c r="W162" s="8"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A163" s="18" t="s">
         <v>275</v>
       </c>
@@ -33837,7 +33837,7 @@
       </c>
       <c r="W163" s="8"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A164" s="18" t="s">
         <v>275</v>
       </c>
@@ -33899,7 +33899,7 @@
       </c>
       <c r="W164" s="8"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A165" s="18" t="s">
         <v>275</v>
       </c>
@@ -33961,7 +33961,7 @@
       </c>
       <c r="W165" s="8"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A166" s="18" t="s">
         <v>275</v>
       </c>
@@ -34023,7 +34023,7 @@
       </c>
       <c r="W166" s="8"/>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A167" s="18" t="s">
         <v>275</v>
       </c>
@@ -34085,7 +34085,7 @@
       </c>
       <c r="W167" s="8"/>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A168" s="18" t="s">
         <v>275</v>
       </c>
@@ -34147,7 +34147,7 @@
       </c>
       <c r="W168" s="8"/>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A169" s="18" t="s">
         <v>275</v>
       </c>
@@ -34209,7 +34209,7 @@
       </c>
       <c r="W169" s="8"/>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A170" s="18" t="s">
         <v>303</v>
       </c>
@@ -34271,7 +34271,7 @@
       </c>
       <c r="W170" s="8"/>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A171" s="18" t="s">
         <v>303</v>
       </c>
@@ -34333,7 +34333,7 @@
       </c>
       <c r="W171" s="8"/>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A172" s="18" t="s">
         <v>308</v>
       </c>
@@ -34397,7 +34397,7 @@
       </c>
       <c r="W172" s="8"/>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A173" s="18" t="s">
         <v>311</v>
       </c>
@@ -34461,7 +34461,7 @@
       </c>
       <c r="W173" s="8"/>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A174" s="18" t="s">
         <v>311</v>
       </c>
@@ -34525,7 +34525,7 @@
       </c>
       <c r="W174" s="8"/>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>311</v>
       </c>
@@ -34589,7 +34589,7 @@
       </c>
       <c r="W175" s="8"/>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>311</v>
       </c>
@@ -34653,7 +34653,7 @@
       </c>
       <c r="W176" s="8"/>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>311</v>
       </c>
@@ -34717,7 +34717,7 @@
       </c>
       <c r="W177" s="8"/>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>311</v>
       </c>
@@ -34781,7 +34781,7 @@
       </c>
       <c r="W178" s="8"/>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>311</v>
       </c>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="W179" s="8"/>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>311</v>
       </c>
@@ -34887,7 +34887,7 @@
       </c>
       <c r="W180" s="8"/>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="S181" s="38"/>
     </row>
   </sheetData>
@@ -34963,9 +34963,9 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -35005,7 +35005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -35016,7 +35016,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G4" s="5" t="s">
         <v>258</v>
       </c>
@@ -35037,7 +35037,7 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.36328125" customWidth="1"/>
     <col min="2" max="2" width="16.36328125" customWidth="1"/>
@@ -35059,7 +35059,7 @@
     <col min="23" max="23" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35130,7 +35130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -35192,7 +35192,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -35254,7 +35254,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -35316,7 +35316,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -35378,7 +35378,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -35440,7 +35440,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -35502,7 +35502,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -35564,7 +35564,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -35626,7 +35626,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -35685,7 +35685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -35744,7 +35744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -35803,7 +35803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -35862,7 +35862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -35921,7 +35921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -35980,7 +35980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -36039,7 +36039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -36104,7 +36104,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -36163,7 +36163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -36222,7 +36222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -36281,7 +36281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -36340,7 +36340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -36405,7 +36405,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -36464,7 +36464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -36523,7 +36523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -36582,7 +36582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -36641,7 +36641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -36700,7 +36700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -36759,7 +36759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -36818,7 +36818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -36877,7 +36877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -36936,7 +36936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -36995,7 +36995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -37054,7 +37054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -37113,7 +37113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -37175,7 +37175,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -37234,7 +37234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -37293,7 +37293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -37358,7 +37358,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -37417,7 +37417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -37476,7 +37476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -37535,7 +37535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -37594,7 +37594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -37653,7 +37653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -37712,7 +37712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -37771,7 +37771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -37830,7 +37830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -37889,7 +37889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -37948,7 +37948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -38007,7 +38007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -38066,7 +38066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -38125,7 +38125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -38184,7 +38184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -38243,7 +38243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -38302,7 +38302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -38361,7 +38361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -38420,7 +38420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>95</v>
       </c>
@@ -38479,7 +38479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -38538,7 +38538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -38656,7 +38656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -38715,7 +38715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -38774,7 +38774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -38833,7 +38833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -38892,7 +38892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -38951,7 +38951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -39010,7 +39010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -39085,7 +39085,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
@@ -39094,7 +39094,7 @@
     <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>395</v>
       </c>
@@ -39102,7 +39102,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>254</v>
       </c>
@@ -39110,7 +39110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>591</v>
       </c>
@@ -39118,7 +39118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>252</v>
       </c>
@@ -39126,7 +39126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>335</v>
       </c>
@@ -39134,7 +39134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -39142,7 +39142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
@@ -39150,7 +39150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>87</v>
       </c>
@@ -39158,7 +39158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>95</v>
       </c>
@@ -39166,7 +39166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -39174,7 +39174,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>401</v>
       </c>
@@ -39182,7 +39182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>21</v>
       </c>
@@ -39190,7 +39190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>95</v>
       </c>
@@ -39198,7 +39198,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>202</v>
       </c>
@@ -39206,7 +39206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>591</v>
       </c>
@@ -39214,7 +39214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>216</v>
       </c>
@@ -39222,7 +39222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>592</v>
       </c>
@@ -39230,7 +39230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
         <v>221</v>
       </c>
@@ -39238,7 +39238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>232</v>
       </c>
@@ -39246,7 +39246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>239</v>
       </c>
@@ -39254,7 +39254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
         <v>255</v>
       </c>
@@ -39262,7 +39262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>261</v>
       </c>
@@ -39270,7 +39270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>263</v>
       </c>
@@ -39278,7 +39278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>326</v>
       </c>
@@ -39286,7 +39286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
         <v>267</v>
       </c>
@@ -39294,7 +39294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>271</v>
       </c>
@@ -39302,7 +39302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>275</v>
       </c>
@@ -39310,7 +39310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>303</v>
       </c>
@@ -39318,7 +39318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>308</v>
       </c>
@@ -39326,7 +39326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>311</v>
       </c>
@@ -39334,19 +39334,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>403</v>
       </c>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>396</v>
       </c>
@@ -39367,7 +39367,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
@@ -39387,7 +39387,7 @@
     <col min="17" max="18" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -39443,7 +39443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
@@ -39487,7 +39487,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>95</v>
       </c>
@@ -39531,7 +39531,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>95</v>
       </c>
@@ -39575,7 +39575,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>95</v>
       </c>
@@ -39619,7 +39619,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>95</v>
       </c>
@@ -39663,7 +39663,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>95</v>
       </c>
@@ -39707,7 +39707,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>95</v>
       </c>
@@ -39751,7 +39751,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>95</v>
       </c>
@@ -39795,7 +39795,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>95</v>
       </c>
@@ -39839,7 +39839,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>95</v>
       </c>
